--- a/TP1/mediciones_notch.xlsx
+++ b/TP1/mediciones_notch.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ariel\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcelo\Documents\GitHub\InformesTC\TP1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{63CFCD92-C152-40C6-9034-2C51213F0496}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C69E087E-C2B7-4829-8DFC-D7F18C57B3E1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{7164BD90-A354-44C7-84DA-13E7581573C8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="7980" xr2:uid="{7164BD90-A354-44C7-84DA-13E7581573C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -89,6 +89,1206 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Phase</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="58"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="58"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>57.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>62.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>65.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>69.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>71.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75.2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>76.3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>77.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>80.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>81.7</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-73</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-79</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-82</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-83</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-84</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-80</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-77</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-77</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-77</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-75</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-75</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-74</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-74</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-73</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-72</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-71</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-70.7</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-70</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-69.8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-68</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-65</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-61</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-56</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-47.5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-42</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-35</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-26</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-532D-46EC-828A-80B7C51B22BC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="526108168"/>
+        <c:axId val="526104888"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="526108168"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="25"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="526104888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="526104888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="526108168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAD04EAD-CC2F-47D1-A929-6828DC17A95F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -388,15 +1588,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6560A984-BE27-4BB0-A73C-8D9F5156DA85}">
-  <dimension ref="B1:E59"/>
+  <dimension ref="B1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -410,7 +1610,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>0.1</v>
       </c>
@@ -421,10 +1621,14 @@
         <v>3.54</v>
       </c>
       <c r="E2">
-        <v>8.64</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <f>20*LOG(D2/C2,10)</f>
+        <v>-0.24196243246536348</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>0.2</v>
       </c>
@@ -435,10 +1639,14 @@
         <v>3.37</v>
       </c>
       <c r="E3">
-        <v>18.72</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+        <v>17.7</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F59" si="0">20*LOG(D3/C3,10)</f>
+        <v>-0.52506251545071436</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>0.3</v>
       </c>
@@ -449,10 +1657,14 @@
         <v>3.17</v>
       </c>
       <c r="E4">
-        <v>26.02</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+        <v>25.3</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>-1.0078147151024734</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>0.4</v>
       </c>
@@ -463,10 +1675,14 @@
         <v>2.96</v>
       </c>
       <c r="E5">
-        <v>31.68</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>-1.5787328399231098</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>0.5</v>
       </c>
@@ -477,10 +1693,14 @@
         <v>2.71</v>
       </c>
       <c r="E6">
-        <v>37.799999999999997</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+        <v>39.4</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>-2.3206794230276415</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>0.6</v>
       </c>
@@ -491,10 +1711,14 @@
         <v>2.46</v>
       </c>
       <c r="E7">
-        <v>45.27</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+        <v>45.5</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>-3.0874401872488977</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>0.7</v>
       </c>
@@ -505,10 +1729,14 @@
         <v>2.2200000000000002</v>
       </c>
       <c r="E8">
-        <v>47.83</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>-3.9543013979927388</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>0.8</v>
       </c>
@@ -519,10 +1747,14 @@
         <v>1.99</v>
       </c>
       <c r="E9">
-        <v>54.23</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>-4.8794470109894652</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>0.9</v>
       </c>
@@ -533,10 +1765,14 @@
         <v>1.81</v>
       </c>
       <c r="E10">
-        <v>58.48</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+        <v>57.2</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>-5.8997928248601719</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>1</v>
       </c>
@@ -547,10 +1783,14 @@
         <v>1.62</v>
       </c>
       <c r="E11">
-        <v>62.17</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+        <v>60.5</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>-6.616289204964855</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>1.1000000000000001</v>
       </c>
@@ -561,10 +1801,14 @@
         <v>1.47</v>
       </c>
       <c r="E12">
-        <v>64.739999999999995</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+        <v>62.7</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>-7.4602428008539521</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>1.2</v>
       </c>
@@ -575,10 +1819,14 @@
         <v>1.3</v>
       </c>
       <c r="E13">
-        <v>65.67</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+        <v>65.8</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>-8.5527178327948832</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>1.3</v>
       </c>
@@ -589,10 +1837,14 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="E14">
-        <v>67.05</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+        <v>69.5</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>-9.5926326887452422</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>1.4</v>
       </c>
@@ -603,10 +1855,14 @@
         <v>1.0149999999999999</v>
       </c>
       <c r="E15">
-        <v>72.400000000000006</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+        <v>71.2</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>-10.576561555870775</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>1.5</v>
       </c>
@@ -617,10 +1873,14 @@
         <v>0.85899999999999999</v>
       </c>
       <c r="E16">
-        <v>71.14</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>-12.101658699230684</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>1.6</v>
       </c>
@@ -631,10 +1891,14 @@
         <v>0.78400000000000003</v>
       </c>
       <c r="E17">
-        <v>76.150000000000006</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+        <v>75.2</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>-12.870060647776713</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>1.7</v>
       </c>
@@ -645,10 +1909,14 @@
         <v>0.68100000000000005</v>
       </c>
       <c r="E18">
-        <v>78.37</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+        <v>76.3</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>-14.017579882866995</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>1.8</v>
       </c>
@@ -659,10 +1927,14 @@
         <v>0.58199999999999996</v>
       </c>
       <c r="E19">
-        <v>76.400000000000006</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+        <v>77.5</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>-15.582901194007743</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>1.9</v>
       </c>
@@ -673,10 +1945,14 @@
         <v>0.46200000000000002</v>
       </c>
       <c r="E20">
-        <v>78.02</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>-17.387682610000191</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>2</v>
       </c>
@@ -687,10 +1963,14 @@
         <v>0.40200000000000002</v>
       </c>
       <c r="E21">
-        <v>82.08</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>-18.621361339166008</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>2.1</v>
       </c>
@@ -701,10 +1981,14 @@
         <v>0.31</v>
       </c>
       <c r="E22">
-        <v>81.680000000000007</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+        <v>81.7</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>-20.954288099170078</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>2.2000000000000002</v>
       </c>
@@ -714,11 +1998,12 @@
       <c r="D23">
         <v>0.254</v>
       </c>
-      <c r="E23">
-        <v>84.05</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>-22.609208068456649</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>2.2999999999999998</v>
       </c>
@@ -728,11 +2013,12 @@
       <c r="D24">
         <v>0.16600000000000001</v>
       </c>
-      <c r="E24">
-        <v>90.82</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <f>20*LOG(D24/C24,10)</f>
+        <v>-26.354220140664374</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>2.4</v>
       </c>
@@ -742,11 +2028,12 @@
       <c r="D25">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E25">
-        <v>90.82</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>-27.783321687290645</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>2.5</v>
       </c>
@@ -756,11 +2043,12 @@
       <c r="D26">
         <v>0.02</v>
       </c>
-      <c r="E26">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>-44.659922207843074</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>2.6</v>
       </c>
@@ -770,8 +2058,12 @@
       <c r="D27">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>-44.659922207843074</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>2.7</v>
       </c>
@@ -781,11 +2073,12 @@
       <c r="D28">
         <v>0.06</v>
       </c>
-      <c r="E28">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>-34.963760540124007</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>2.8</v>
       </c>
@@ -795,11 +2088,12 @@
       <c r="D29">
         <v>0.16500000000000001</v>
       </c>
-      <c r="E29">
-        <v>91.01</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <f>20*LOG(D29/C29,10)</f>
+        <v>-26.305408695571831</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>2.9</v>
       </c>
@@ -809,11 +2103,12 @@
       <c r="D30">
         <v>0.23</v>
       </c>
-      <c r="E30">
-        <v>91.56</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>-23.420530859498093</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>3</v>
       </c>
@@ -823,11 +2118,12 @@
       <c r="D31">
         <v>0.28999999999999998</v>
       </c>
-      <c r="E31">
-        <v>91.5</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>-21.407127621870828</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>3.1</v>
       </c>
@@ -838,10 +2134,14 @@
         <v>0.34</v>
       </c>
       <c r="E32">
-        <v>84.97</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+        <v>-73</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>-20.025509239004847</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>3.2</v>
       </c>
@@ -852,10 +2152,14 @@
         <v>0.38900000000000001</v>
       </c>
       <c r="E33">
-        <v>84.23</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+        <v>-79</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>-18.830586314330944</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>3.3</v>
       </c>
@@ -866,10 +2170,14 @@
         <v>0.43</v>
       </c>
       <c r="E34">
-        <v>87.02</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+        <v>-82</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>-17.934624852469913</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>3.4</v>
       </c>
@@ -880,10 +2188,14 @@
         <v>0.47</v>
       </c>
       <c r="E35">
-        <v>83.26</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+        <v>-83</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>-17.187621182130751</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>3.5</v>
       </c>
@@ -894,10 +2206,14 @@
         <v>0.54</v>
       </c>
       <c r="E36">
-        <v>80.56</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+        <v>-84</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>-15.9047228209674</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>3.6</v>
       </c>
@@ -908,10 +2224,14 @@
         <v>0.59</v>
       </c>
       <c r="E37">
-        <v>80.290000000000006</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+        <v>-80</v>
+      </c>
+      <c r="F37">
+        <f>20*LOG(D37/C37,10)</f>
+        <v>-15.186953731218759</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>3.7</v>
       </c>
@@ -922,10 +2242,14 @@
         <v>0.63</v>
       </c>
       <c r="E38">
-        <v>79.41</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+        <v>-77</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>-14.591523016481458</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>3.8</v>
       </c>
@@ -936,10 +2260,14 @@
         <v>0.68</v>
       </c>
       <c r="E39">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+        <v>-77</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>-13.876607293672151</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>3.9</v>
       </c>
@@ -950,10 +2278,14 @@
         <v>0.72</v>
       </c>
       <c r="E40">
-        <v>75.349999999999994</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+        <v>-77</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>-13.276111745455356</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>4</v>
       </c>
@@ -964,10 +2296,14 @@
         <v>0.77</v>
       </c>
       <c r="E41">
-        <v>83.52</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+        <v>-75</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>-12.822783513977134</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B42">
         <v>4.0999999999999996</v>
       </c>
@@ -978,10 +2314,14 @@
         <v>0.78</v>
       </c>
       <c r="E42">
-        <v>73.77</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+        <v>-75</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>-12.60699261631679</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B43">
         <v>4.2</v>
       </c>
@@ -992,10 +2332,14 @@
         <v>0.84</v>
       </c>
       <c r="E43">
-        <v>75.63</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+        <v>-74</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>-12.01531041949927</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B44">
         <v>4.3</v>
       </c>
@@ -1006,10 +2350,14 @@
         <v>0.87</v>
       </c>
       <c r="E44">
-        <v>74.8</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+        <v>-74</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>-11.658499617754025</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B45">
         <v>4.4000000000000004</v>
       </c>
@@ -1020,10 +2368,14 @@
         <v>0.9</v>
       </c>
       <c r="E45">
-        <v>74.540000000000006</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+        <v>-73</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>-11.364034481339898</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B46">
         <v>4.5</v>
       </c>
@@ -1034,10 +2386,14 @@
         <v>0.95</v>
       </c>
       <c r="E46">
-        <v>72.97</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+        <v>-72</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>-10.972313442019924</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B47">
         <v>4.5999999999999996</v>
       </c>
@@ -1048,10 +2404,14 @@
         <v>0.98</v>
       </c>
       <c r="E47">
-        <v>72.900000000000006</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+        <v>-71</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>-10.54575728370785</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B48">
         <v>4.7</v>
       </c>
@@ -1062,10 +2422,14 @@
         <v>1.0149999999999999</v>
       </c>
       <c r="E48">
-        <v>71.83</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+        <v>-70.7</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="0"/>
+        <v>-10.293440829096092</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B49">
         <v>4.8</v>
       </c>
@@ -1076,10 +2440,14 @@
         <v>1.0329999999999999</v>
       </c>
       <c r="E49">
-        <v>70.959999999999994</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+        <v>-70</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="0"/>
+        <v>-10.166878239733986</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B50">
         <v>4.9000000000000004</v>
       </c>
@@ -1090,10 +2458,14 @@
         <v>1.087</v>
       </c>
       <c r="E50">
-        <v>68.819999999999993</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+        <v>-69.8</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="0"/>
+        <v>-9.6981707923548335</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B51">
         <v>5</v>
       </c>
@@ -1104,10 +2476,14 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="E51">
-        <v>68.400000000000006</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+        <v>-68</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="0"/>
+        <v>-9.5939735521494605</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B52">
         <v>5.5</v>
       </c>
@@ -1118,10 +2494,14 @@
         <v>1.26</v>
       </c>
       <c r="E52">
-        <v>67.25</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+        <v>-65</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="0"/>
+        <v>-8.415350771729468</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B53">
         <v>6.5</v>
       </c>
@@ -1132,10 +2512,14 @@
         <v>1.54</v>
       </c>
       <c r="E53">
-        <v>63.12</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+        <v>-61</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="0"/>
+        <v>-6.4872528028482259</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B54">
         <v>7.8</v>
       </c>
@@ -1146,10 +2530,14 @@
         <v>1.8</v>
       </c>
       <c r="E54">
-        <v>56.26</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+        <v>-56</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="0"/>
+        <v>-5.1589018992926574</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B55">
         <v>10</v>
       </c>
@@ -1160,10 +2548,14 @@
         <v>2.12</v>
       </c>
       <c r="E55">
-        <v>48.76</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+        <v>-47.5</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="0"/>
+        <v>-3.5490964425685929</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B56">
         <v>12</v>
       </c>
@@ -1174,10 +2566,14 @@
         <v>2.3199999999999998</v>
       </c>
       <c r="E56">
-        <v>41.34</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+        <v>-42</v>
+      </c>
+      <c r="F56">
+        <f>20*LOG(D56/C56,10)</f>
+        <v>-2.6564513779740171</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B57">
         <v>15</v>
       </c>
@@ -1188,10 +2584,14 @@
         <v>2.5</v>
       </c>
       <c r="E57">
-        <v>34.49</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+        <v>-35</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="0"/>
+        <v>-1.8684337032447018</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B58">
         <v>20</v>
       </c>
@@ -1202,10 +2602,14 @@
         <v>2.66</v>
       </c>
       <c r="E58">
-        <v>28.8</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+        <v>-26</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="0"/>
+        <v>-1.329601144064114</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B59">
         <v>25</v>
       </c>
@@ -1216,10 +2620,15 @@
         <v>2.77</v>
       </c>
       <c r="E59">
-        <v>21.49</v>
+        <v>-22</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="0"/>
+        <v>-0.97763849539648229</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>